--- a/REC.xlsx
+++ b/REC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AA566C-F1CC-41EC-9EEE-495C8DE44EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8298DF2A-AFB4-456B-8E17-75E5C47F5BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{BF8268AB-CC56-4448-AF2A-7E591EB69C2D}"/>
+    <workbookView xWindow="-50220" yWindow="1860" windowWidth="21420" windowHeight="18315" xr2:uid="{BF8268AB-CC56-4448-AF2A-7E591EB69C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>Price EUR</t>
   </si>
   <si>
-    <t>Q421</t>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -118,9 +118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -158,7 +158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -264,7 +264,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,7 +406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CD635E-4F01-4BAA-8707-9CC6C0B3A332}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="1">
-        <v>39</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.2">
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>209.125156</v>
+        <v>206.29916</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>6</v>
@@ -450,7 +450,7 @@
       </c>
       <c r="M4" s="2">
         <f>M2*M3</f>
-        <v>8155.8810840000006</v>
+        <v>10583.146907999999</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.2">
@@ -469,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="2">
-        <v>736.5</v>
+        <v>1469.4</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>6</v>
@@ -481,7 +481,7 @@
       </c>
       <c r="M7" s="2">
         <f>M4-M5+M6</f>
-        <v>8892.3810840000006</v>
+        <v>12052.546907999998</v>
       </c>
     </row>
   </sheetData>
